--- a/R codes/Freezing_opto_data.xlsx
+++ b/R codes/Freezing_opto_data.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pablo/Library/CloudStorage/GoogleDrive-vergara.pablo.ig@gmail.com/My Drive/Colab Notebooks/Linear_GAM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pablo/Documents/GitHub/Srinivasan_Koyanagi_2025/R codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17CE89E-1F48-764F-95C2-C226FFF947B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3583BE-8C0A-7543-84FF-A5F77979B4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="1340" windowWidth="49640" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5158,18 +5157,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE10B9B-C110-E84D-9A27-9952F05DB199}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:H62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>